--- a/250117/원시타입 및 참조타입 변수.xlsx
+++ b/250117/원시타입 및 참조타입 변수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EZEN\Desktop\kdtfed-241219\250117\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{989A3C49-E23F-4DC8-AC27-1FB16FC72F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C4902A-8AFD-474F-BB52-CF99F753287E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6559953F-EEEC-4226-8530-B5E0F89AB0B7}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,21 +118,375 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="26">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -141,23 +495,98 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3214FB6C-2A2C-4240-8C58-9095F82947B8}">
   <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -488,125 +917,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:10" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="29">
         <v>1001</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="29">
         <v>1002</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="29">
         <v>1003</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="29">
         <v>1004</v>
       </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="27">
         <v>5001</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="27">
         <v>5002</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="27">
         <v>5003</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="27">
         <v>5004</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="28">
         <v>5005</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="11">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="11">
         <v>15</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="13">
         <v>20</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="30">
         <v>7103</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="30">
         <v>7104</v>
       </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="20"/>
+      <c r="C8" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/250117/원시타입 및 참조타입 변수.xlsx
+++ b/250117/원시타입 및 참조타입 변수.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EZEN\Desktop\kdtfed-241219\250117\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C4902A-8AFD-474F-BB52-CF99F753287E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F0EB65-C5C5-424B-A624-E9E7076B30D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6559953F-EEEC-4226-8530-B5E0F89AB0B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6559953F-EEEC-4226-8530-B5E0F89AB0B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t>이름 : c
-값 : @5005</t>
+값 : @5001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,56 +538,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,7 +906,7 @@
   <dimension ref="B1:J8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -918,40 +918,40 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="22">
         <v>1001</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="22">
         <v>1002</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="22">
         <v>1003</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="22">
         <v>1004</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16"/>
-      <c r="C4" s="22" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -969,31 +969,31 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="20">
         <v>5001</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="20">
         <v>5002</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="20">
         <v>5003</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="20">
         <v>5004</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="21">
         <v>5005</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="11">
@@ -1014,16 +1014,16 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="23">
         <v>7103</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="23">
         <v>7104</v>
       </c>
       <c r="F7" s="9"/>
@@ -1031,8 +1031,8 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:10" s="1" customFormat="1" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="20"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
